--- a/dataanalysis/data/predictions/1600/09251526_1528.xlsx
+++ b/dataanalysis/data/predictions/1600/09251526_1528.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="156">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-25</t>
   </si>
   <si>
@@ -479,12 +482,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -842,13 +839,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH68"/>
+  <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,19 +948,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300014</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>6.47</v>
@@ -981,7 +981,7 @@
         <v>984596.28</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K2">
         <v>15</v>
@@ -1023,10 +1023,25 @@
         <v>0.51</v>
       </c>
       <c r="X2" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y2">
+        <v>-4.93</v>
+      </c>
+      <c r="Z2">
+        <v>82.02</v>
+      </c>
+      <c r="AA2">
+        <v>0.91</v>
       </c>
       <c r="AC2" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1034,22 +1049,25 @@
       <c r="AG2">
         <v>5.040189266204834</v>
       </c>
-      <c r="AH2" t="s">
-        <v>155</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300043</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>5.08</v>
@@ -1067,7 +1085,7 @@
         <v>189042.41</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K3">
         <v>12</v>
@@ -1109,10 +1127,25 @@
         <v>1.45</v>
       </c>
       <c r="X3" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y3">
+        <v>-7.4</v>
+      </c>
+      <c r="Z3">
+        <v>6.96</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
       </c>
       <c r="AC3" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1120,22 +1153,25 @@
       <c r="AG3">
         <v>3.651870250701904</v>
       </c>
-      <c r="AH3" t="s">
-        <v>155</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300111</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>5.02</v>
@@ -1153,7 +1189,7 @@
         <v>460542.62</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -1195,10 +1231,25 @@
         <v>-3.65</v>
       </c>
       <c r="X4" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y4">
+        <v>-13</v>
+      </c>
+      <c r="Z4">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="AA4">
+        <v>-3.11</v>
       </c>
       <c r="AC4" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1206,22 +1257,25 @@
       <c r="AG4">
         <v>5.748210430145264</v>
       </c>
-      <c r="AH4" t="s">
-        <v>155</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300115</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-0.86</v>
@@ -1239,7 +1293,7 @@
         <v>955958.99</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -1281,10 +1335,25 @@
         <v>-0.78</v>
       </c>
       <c r="X5" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y5">
+        <v>-4.77</v>
+      </c>
+      <c r="Z5">
+        <v>40.3</v>
+      </c>
+      <c r="AA5">
+        <v>2.26</v>
       </c>
       <c r="AC5" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1292,22 +1361,25 @@
       <c r="AG5">
         <v>2.003377914428711</v>
       </c>
-      <c r="AH5" t="s">
-        <v>155</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300133</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>4.15</v>
@@ -1325,7 +1397,7 @@
         <v>158236.89</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K6">
         <v>12</v>
@@ -1367,10 +1439,25 @@
         <v>0.62</v>
       </c>
       <c r="X6" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y6">
+        <v>-5.21</v>
+      </c>
+      <c r="Z6">
+        <v>9.77</v>
+      </c>
+      <c r="AA6">
+        <v>-0.1</v>
       </c>
       <c r="AC6" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1378,22 +1465,25 @@
       <c r="AG6">
         <v>6.962346076965332</v>
       </c>
-      <c r="AH6" t="s">
-        <v>155</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300207</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1.21</v>
@@ -1411,7 +1501,7 @@
         <v>422484.33</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K7">
         <v>15</v>
@@ -1453,10 +1543,25 @@
         <v>0.11</v>
       </c>
       <c r="X7" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y7">
+        <v>0.92</v>
+      </c>
+      <c r="Z7">
+        <v>35.98</v>
+      </c>
+      <c r="AA7">
+        <v>7.24</v>
       </c>
       <c r="AC7" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1464,22 +1569,25 @@
       <c r="AG7">
         <v>3.796180248260498</v>
       </c>
-      <c r="AH7" t="s">
-        <v>155</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300236</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>3.24</v>
@@ -1497,7 +1605,7 @@
         <v>178310.21</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1539,10 +1647,25 @@
         <v>0.14</v>
       </c>
       <c r="X8" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y8">
+        <v>-5.01</v>
+      </c>
+      <c r="Z8">
+        <v>65.44</v>
+      </c>
+      <c r="AA8">
+        <v>-0.7</v>
       </c>
       <c r="AC8" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1550,22 +1673,25 @@
       <c r="AG8">
         <v>2.904116630554199</v>
       </c>
-      <c r="AH8" t="s">
-        <v>155</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300250</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-8.41</v>
@@ -1583,7 +1709,7 @@
         <v>148763.38</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1625,10 +1751,25 @@
         <v>-1.35</v>
       </c>
       <c r="X9" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y9">
+        <v>-10.2</v>
+      </c>
+      <c r="Z9">
+        <v>23.62</v>
+      </c>
+      <c r="AA9">
+        <v>-3.59</v>
       </c>
       <c r="AC9" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1636,22 +1777,25 @@
       <c r="AG9">
         <v>1.981926083564758</v>
       </c>
-      <c r="AH9" t="s">
-        <v>155</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300270</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>7.13</v>
@@ -1669,7 +1813,7 @@
         <v>99336.28999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1710,8 +1854,23 @@
       <c r="W10">
         <v>-5.69</v>
       </c>
+      <c r="Y10">
+        <v>-4.58</v>
+      </c>
+      <c r="Z10">
+        <v>11.63</v>
+      </c>
+      <c r="AA10">
+        <v>0.52</v>
+      </c>
       <c r="AC10" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1719,22 +1878,25 @@
       <c r="AG10">
         <v>10.77332210540771</v>
       </c>
-      <c r="AH10" t="s">
-        <v>155</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300274</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3.66</v>
@@ -1752,7 +1914,7 @@
         <v>1609112.88</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K11">
         <v>17</v>
@@ -1794,10 +1956,25 @@
         <v>0.16</v>
       </c>
       <c r="X11" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Y11">
+        <v>-1.46</v>
+      </c>
+      <c r="Z11">
+        <v>167.48</v>
+      </c>
+      <c r="AA11">
+        <v>4.78</v>
       </c>
       <c r="AC11" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1805,22 +1982,25 @@
       <c r="AG11">
         <v>2.69720721244812</v>
       </c>
-      <c r="AH11" t="s">
-        <v>155</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300398</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>1.31</v>
@@ -1838,7 +2018,7 @@
         <v>205474.84</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1880,10 +2060,25 @@
         <v>-0.45</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y12">
+        <v>-6.55</v>
+      </c>
+      <c r="Z12">
+        <v>26.64</v>
+      </c>
+      <c r="AA12">
+        <v>-1.48</v>
       </c>
       <c r="AC12" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1891,22 +2086,25 @@
       <c r="AG12">
         <v>3.957710981369019</v>
       </c>
-      <c r="AH12" t="s">
-        <v>155</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300418</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>7.4</v>
@@ -1924,7 +2122,7 @@
         <v>1013562.98</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1966,10 +2164,25 @@
         <v>-0.37</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y13">
+        <v>-7.48</v>
+      </c>
+      <c r="Z13">
+        <v>48.49</v>
+      </c>
+      <c r="AA13">
+        <v>-0.57</v>
       </c>
       <c r="AC13" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -1977,22 +2190,25 @@
       <c r="AG13">
         <v>8.006565093994141</v>
       </c>
-      <c r="AH13" t="s">
-        <v>155</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300433</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0.9</v>
@@ -2010,7 +2226,7 @@
         <v>464001.13</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2052,10 +2268,25 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y14">
+        <v>-4.88</v>
+      </c>
+      <c r="Z14">
+        <v>33.88</v>
+      </c>
+      <c r="AA14">
+        <v>0.77</v>
       </c>
       <c r="AC14" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2063,22 +2294,25 @@
       <c r="AG14">
         <v>3.09853720664978</v>
       </c>
-      <c r="AH14" t="s">
-        <v>155</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300435</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-1.83</v>
@@ -2096,7 +2330,7 @@
         <v>39836.42</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -2137,8 +2371,23 @@
       <c r="W15">
         <v>-0.1</v>
       </c>
+      <c r="Y15">
+        <v>-2.1</v>
+      </c>
+      <c r="Z15">
+        <v>22.05</v>
+      </c>
+      <c r="AA15">
+        <v>2.8</v>
+      </c>
       <c r="AC15" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2146,22 +2395,25 @@
       <c r="AG15">
         <v>1.334205865859985</v>
       </c>
-      <c r="AH15" t="s">
-        <v>155</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300450</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-4.17</v>
@@ -2179,7 +2431,7 @@
         <v>1101231.62</v>
       </c>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K16">
         <v>20</v>
@@ -2221,10 +2473,25 @@
         <v>-0.75</v>
       </c>
       <c r="X16" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y16">
+        <v>0.65</v>
+      </c>
+      <c r="Z16">
+        <v>68.87</v>
+      </c>
+      <c r="AA16">
+        <v>5.84</v>
       </c>
       <c r="AC16" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2232,22 +2499,25 @@
       <c r="AG16">
         <v>0.3915548920631409</v>
       </c>
-      <c r="AH16" t="s">
-        <v>155</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300475</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-5.2</v>
@@ -2265,7 +2535,7 @@
         <v>329600.92</v>
       </c>
       <c r="J17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17">
         <v>15</v>
@@ -2307,10 +2577,25 @@
         <v>-1.03</v>
       </c>
       <c r="X17" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y17">
+        <v>-3.39</v>
+      </c>
+      <c r="Z17">
+        <v>83.5</v>
+      </c>
+      <c r="AA17">
+        <v>3.62</v>
       </c>
       <c r="AC17" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2318,22 +2603,25 @@
       <c r="AG17">
         <v>7.331290721893311</v>
       </c>
-      <c r="AH17" t="s">
-        <v>155</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300486</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>6.61</v>
@@ -2351,7 +2639,7 @@
         <v>141898.21</v>
       </c>
       <c r="J18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2393,10 +2681,25 @@
         <v>1.17</v>
       </c>
       <c r="X18" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y18">
+        <v>-6.28</v>
+      </c>
+      <c r="Z18">
+        <v>27.19</v>
+      </c>
+      <c r="AA18">
+        <v>6.67</v>
       </c>
       <c r="AC18" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2404,22 +2707,25 @@
       <c r="AG18">
         <v>-2.202363252639771</v>
       </c>
-      <c r="AH18" t="s">
-        <v>155</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300502</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>6.02</v>
@@ -2437,7 +2743,7 @@
         <v>2085952.92</v>
       </c>
       <c r="J19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2479,10 +2785,25 @@
         <v>0.38</v>
       </c>
       <c r="X19" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y19">
+        <v>-0.53</v>
+      </c>
+      <c r="Z19">
+        <v>388.41</v>
+      </c>
+      <c r="AA19">
+        <v>3.3</v>
       </c>
       <c r="AC19" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2490,22 +2811,25 @@
       <c r="AG19">
         <v>2.518038749694824</v>
       </c>
-      <c r="AH19" t="s">
-        <v>155</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300539</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-2.26</v>
@@ -2523,7 +2847,7 @@
         <v>71953.92</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20">
         <v>15</v>
@@ -2565,10 +2889,25 @@
         <v>0.04</v>
       </c>
       <c r="X20" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y20">
+        <v>-1.7</v>
+      </c>
+      <c r="Z20">
+        <v>48.99</v>
+      </c>
+      <c r="AA20">
+        <v>1.37</v>
       </c>
       <c r="AC20" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2576,22 +2915,25 @@
       <c r="AG20">
         <v>-6.870236873626709</v>
       </c>
-      <c r="AH20" t="s">
-        <v>155</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300604</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-1.8</v>
@@ -2609,7 +2951,7 @@
         <v>1058716.16</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K21">
         <v>22</v>
@@ -2651,10 +2993,25 @@
         <v>-1.56</v>
       </c>
       <c r="X21" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y21">
+        <v>1.07</v>
+      </c>
+      <c r="Z21">
+        <v>96.66</v>
+      </c>
+      <c r="AA21">
+        <v>2.19</v>
       </c>
       <c r="AC21" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2662,22 +3019,25 @@
       <c r="AG21">
         <v>13.15329170227051</v>
       </c>
-      <c r="AH21" t="s">
-        <v>155</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300620</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>1.51</v>
@@ -2695,7 +3055,7 @@
         <v>313943.5</v>
       </c>
       <c r="J22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22">
         <v>12</v>
@@ -2737,10 +3097,25 @@
         <v>0.27</v>
       </c>
       <c r="X22" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y22">
+        <v>-5.23</v>
+      </c>
+      <c r="Z22">
+        <v>126.4</v>
+      </c>
+      <c r="AA22">
+        <v>-0.08</v>
       </c>
       <c r="AC22" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2748,22 +3123,25 @@
       <c r="AG22">
         <v>8.570834159851074</v>
       </c>
-      <c r="AH22" t="s">
-        <v>155</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300666</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>1.3</v>
@@ -2781,7 +3159,7 @@
         <v>455781.63</v>
       </c>
       <c r="J23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2823,10 +3201,25 @@
         <v>-1.07</v>
       </c>
       <c r="X23" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y23">
+        <v>4.94</v>
+      </c>
+      <c r="Z23">
+        <v>107.77</v>
+      </c>
+      <c r="AA23">
+        <v>7.66</v>
       </c>
       <c r="AC23" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2834,22 +3227,25 @@
       <c r="AG23">
         <v>20.85398101806641</v>
       </c>
-      <c r="AH23" t="s">
-        <v>155</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300680</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-3.31</v>
@@ -2867,7 +3263,7 @@
         <v>75365.44</v>
       </c>
       <c r="J24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -2909,10 +3305,25 @@
         <v>-0.34</v>
       </c>
       <c r="X24" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y24">
+        <v>1.74</v>
+      </c>
+      <c r="Z24">
+        <v>68.68000000000001</v>
+      </c>
+      <c r="AA24">
+        <v>8.359999999999999</v>
       </c>
       <c r="AC24" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2920,22 +3331,25 @@
       <c r="AG24">
         <v>67.96212005615234</v>
       </c>
-      <c r="AH24" t="s">
-        <v>155</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300792</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>12.73</v>
@@ -2953,7 +3367,7 @@
         <v>169840.32</v>
       </c>
       <c r="J25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2995,10 +3409,25 @@
         <v>2.49</v>
       </c>
       <c r="X25" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y25">
+        <v>-3.48</v>
+      </c>
+      <c r="Z25">
+        <v>34.21</v>
+      </c>
+      <c r="AA25">
+        <v>-0.7</v>
       </c>
       <c r="AC25" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3006,22 +3435,25 @@
       <c r="AG25">
         <v>1.862977266311646</v>
       </c>
-      <c r="AH25" t="s">
-        <v>155</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300814</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>3.75</v>
@@ -3039,7 +3471,7 @@
         <v>82493.14999999999</v>
       </c>
       <c r="J26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K26">
         <v>8</v>
@@ -3081,10 +3513,25 @@
         <v>0.04</v>
       </c>
       <c r="X26" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y26">
+        <v>-8.609999999999999</v>
+      </c>
+      <c r="Z26">
+        <v>52.93</v>
+      </c>
+      <c r="AA26">
+        <v>-0.3</v>
       </c>
       <c r="AC26" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3092,22 +3539,25 @@
       <c r="AG26">
         <v>0.1065053939819336</v>
       </c>
-      <c r="AH26" t="s">
-        <v>155</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300836</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>3.92</v>
@@ -3125,7 +3575,7 @@
         <v>58659.41</v>
       </c>
       <c r="J27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -3166,8 +3616,23 @@
       <c r="W27">
         <v>2.55</v>
       </c>
+      <c r="Y27">
+        <v>-3.79</v>
+      </c>
+      <c r="Z27">
+        <v>62.5</v>
+      </c>
+      <c r="AA27">
+        <v>8.699999999999999</v>
+      </c>
       <c r="AC27" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3175,22 +3640,25 @@
       <c r="AG27">
         <v>3.108888864517212</v>
       </c>
-      <c r="AH27" t="s">
-        <v>156</v>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300857</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-2.44</v>
@@ -3208,7 +3676,7 @@
         <v>272010.47</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K28">
         <v>25</v>
@@ -3250,10 +3718,25 @@
         <v>-0.88</v>
       </c>
       <c r="X28" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y28">
+        <v>-3.81</v>
+      </c>
+      <c r="Z28">
+        <v>167.78</v>
+      </c>
+      <c r="AA28">
+        <v>-0.01</v>
       </c>
       <c r="AC28" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3261,22 +3744,25 @@
       <c r="AG28">
         <v>7.6611647605896</v>
       </c>
-      <c r="AH28" t="s">
-        <v>155</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300953</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>2.01</v>
@@ -3294,7 +3780,7 @@
         <v>129089.18</v>
       </c>
       <c r="J29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K29">
         <v>22</v>
@@ -3336,10 +3822,25 @@
         <v>0.25</v>
       </c>
       <c r="X29" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y29">
+        <v>-2.86</v>
+      </c>
+      <c r="Z29">
+        <v>176.88</v>
+      </c>
+      <c r="AA29">
+        <v>1.24</v>
       </c>
       <c r="AC29" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3347,22 +3848,25 @@
       <c r="AG29">
         <v>-28.85658073425293</v>
       </c>
-      <c r="AH29" t="s">
-        <v>155</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300959</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>8.51</v>
@@ -3380,7 +3884,7 @@
         <v>121476.13</v>
       </c>
       <c r="J30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K30">
         <v>8</v>
@@ -3422,10 +3926,25 @@
         <v>0.74</v>
       </c>
       <c r="X30" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y30">
+        <v>-10.37</v>
+      </c>
+      <c r="Z30">
+        <v>82.5</v>
+      </c>
+      <c r="AA30">
+        <v>-1.65</v>
       </c>
       <c r="AC30" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3433,22 +3952,25 @@
       <c r="AG30">
         <v>6.045475006103516</v>
       </c>
-      <c r="AH30" t="s">
-        <v>155</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300969</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0.99</v>
@@ -3466,7 +3988,7 @@
         <v>75213.07000000001</v>
       </c>
       <c r="J31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K31">
         <v>7</v>
@@ -3508,10 +4030,25 @@
         <v>1.79</v>
       </c>
       <c r="X31" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y31">
+        <v>-6.54</v>
+      </c>
+      <c r="Z31">
+        <v>136.69</v>
+      </c>
+      <c r="AA31">
+        <v>-0.48</v>
       </c>
       <c r="AC31" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3519,22 +4056,25 @@
       <c r="AG31">
         <v>3.030301332473755</v>
       </c>
-      <c r="AH31" t="s">
-        <v>155</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301008</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-7.08</v>
@@ -3552,7 +4092,7 @@
         <v>87402</v>
       </c>
       <c r="J32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -3594,10 +4134,25 @@
         <v>-0.33</v>
       </c>
       <c r="X32" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y32">
+        <v>-2.44</v>
+      </c>
+      <c r="Z32">
+        <v>46.3</v>
+      </c>
+      <c r="AA32">
+        <v>0.76</v>
       </c>
       <c r="AC32" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3605,22 +4160,25 @@
       <c r="AG32">
         <v>19.93291473388672</v>
       </c>
-      <c r="AH32" t="s">
-        <v>155</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301052</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-1.66</v>
@@ -3638,7 +4196,7 @@
         <v>121778.16</v>
       </c>
       <c r="J33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3680,10 +4238,25 @@
         <v>-0.93</v>
       </c>
       <c r="X33" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y33">
+        <v>-13.91</v>
+      </c>
+      <c r="Z33">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="AA33">
+        <v>2.96</v>
       </c>
       <c r="AC33" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3691,22 +4264,25 @@
       <c r="AG33">
         <v>2.575499296188354</v>
       </c>
-      <c r="AH33" t="s">
-        <v>155</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301086</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>7.75</v>
@@ -3724,7 +4300,7 @@
         <v>79048.64</v>
       </c>
       <c r="J34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3766,10 +4342,25 @@
         <v>2.71</v>
       </c>
       <c r="X34" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y34">
+        <v>-7.76</v>
+      </c>
+      <c r="Z34">
+        <v>85</v>
+      </c>
+      <c r="AA34">
+        <v>-0.11</v>
       </c>
       <c r="AC34" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3777,22 +4368,25 @@
       <c r="AG34">
         <v>8.507147789001465</v>
       </c>
-      <c r="AH34" t="s">
-        <v>155</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301095</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-0.79</v>
@@ -3810,7 +4404,7 @@
         <v>76328.56</v>
       </c>
       <c r="J35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3852,10 +4446,25 @@
         <v>-0.18</v>
       </c>
       <c r="X35" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y35">
+        <v>-3.61</v>
+      </c>
+      <c r="Z35">
+        <v>95.36</v>
+      </c>
+      <c r="AA35">
+        <v>2.12</v>
       </c>
       <c r="AC35" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3863,22 +4472,25 @@
       <c r="AG35">
         <v>-1.379633069038391</v>
       </c>
-      <c r="AH35" t="s">
-        <v>155</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301308</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-4.61</v>
@@ -3896,7 +4508,7 @@
         <v>300160.67</v>
       </c>
       <c r="J36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -3938,10 +4550,25 @@
         <v>-0.42</v>
       </c>
       <c r="X36" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y36">
+        <v>-2.02</v>
+      </c>
+      <c r="Z36">
+        <v>147.5</v>
+      </c>
+      <c r="AA36">
+        <v>2.5</v>
       </c>
       <c r="AC36" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3949,22 +4576,25 @@
       <c r="AG36">
         <v>5.831583976745605</v>
       </c>
-      <c r="AH36" t="s">
-        <v>155</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301319</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>1.1</v>
@@ -3982,7 +4612,7 @@
         <v>55163.24</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -4024,10 +4654,25 @@
         <v>0.01</v>
       </c>
       <c r="X37" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y37">
+        <v>1.21</v>
+      </c>
+      <c r="Z37">
+        <v>49.95</v>
+      </c>
+      <c r="AA37">
+        <v>6.25</v>
       </c>
       <c r="AC37" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4035,22 +4680,25 @@
       <c r="AG37">
         <v>4.53541088104248</v>
       </c>
-      <c r="AH37" t="s">
-        <v>155</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301396</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>2.24</v>
@@ -4068,7 +4716,7 @@
         <v>210218.2</v>
       </c>
       <c r="J38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K38">
         <v>8</v>
@@ -4110,10 +4758,25 @@
         <v>1.71</v>
       </c>
       <c r="X38" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y38">
+        <v>-6.59</v>
+      </c>
+      <c r="Z38">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="AA38">
+        <v>-1.4</v>
       </c>
       <c r="AC38" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4121,22 +4784,25 @@
       <c r="AG38">
         <v>6.18897819519043</v>
       </c>
-      <c r="AH38" t="s">
-        <v>155</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301421</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-2.15</v>
@@ -4154,7 +4820,7 @@
         <v>243898.24</v>
       </c>
       <c r="J39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4196,10 +4862,25 @@
         <v>-0.47</v>
       </c>
       <c r="X39" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y39">
+        <v>-7.32</v>
+      </c>
+      <c r="Z39">
+        <v>125.8</v>
+      </c>
+      <c r="AA39">
+        <v>0.67</v>
       </c>
       <c r="AC39" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4207,22 +4888,25 @@
       <c r="AG39">
         <v>40.67871475219727</v>
       </c>
-      <c r="AH39" t="s">
-        <v>155</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301489</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-0.14</v>
@@ -4240,7 +4924,7 @@
         <v>113374.37</v>
       </c>
       <c r="J40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K40">
         <v>13</v>
@@ -4282,10 +4966,25 @@
         <v>0.37</v>
       </c>
       <c r="X40" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y40">
+        <v>-6.59</v>
+      </c>
+      <c r="Z40">
+        <v>270.98</v>
+      </c>
+      <c r="AA40">
+        <v>-0.74</v>
       </c>
       <c r="AC40" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4293,22 +4992,25 @@
       <c r="AG40">
         <v>2.402569770812988</v>
       </c>
-      <c r="AH40" t="s">
-        <v>155</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301550</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-2.43</v>
@@ -4326,7 +5028,7 @@
         <v>55124.45</v>
       </c>
       <c r="J41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K41">
         <v>7</v>
@@ -4368,10 +5070,25 @@
         <v>0.18</v>
       </c>
       <c r="X41" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y41">
+        <v>-3.89</v>
+      </c>
+      <c r="Z41">
+        <v>133.81</v>
+      </c>
+      <c r="AA41">
+        <v>0.99</v>
       </c>
       <c r="AC41" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4379,22 +5096,25 @@
       <c r="AG41">
         <v>3.970418214797974</v>
       </c>
-      <c r="AH41" t="s">
-        <v>155</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688028</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>6.27</v>
@@ -4412,7 +5132,7 @@
         <v>69387</v>
       </c>
       <c r="J42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K42">
         <v>14</v>
@@ -4454,10 +5174,25 @@
         <v>-0.01</v>
       </c>
       <c r="X42" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y42">
+        <v>-0.77</v>
+      </c>
+      <c r="Z42">
+        <v>55.48</v>
+      </c>
+      <c r="AA42">
+        <v>1.95</v>
       </c>
       <c r="AC42" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4465,22 +5200,25 @@
       <c r="AG42">
         <v>3.379408359527588</v>
       </c>
-      <c r="AH42" t="s">
-        <v>155</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688041</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>3.09</v>
@@ -4498,7 +5236,7 @@
         <v>1296547.94</v>
       </c>
       <c r="J43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4540,10 +5278,25 @@
         <v>0.03</v>
       </c>
       <c r="X43" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y43">
+        <v>-3.29</v>
+      </c>
+      <c r="Z43">
+        <v>268.68</v>
+      </c>
+      <c r="AA43">
+        <v>0.28</v>
       </c>
       <c r="AC43" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4551,22 +5304,25 @@
       <c r="AG43">
         <v>18.89542198181152</v>
       </c>
-      <c r="AH43" t="s">
-        <v>155</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688123</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>2.84</v>
@@ -4584,7 +5340,7 @@
         <v>237895.71</v>
       </c>
       <c r="J44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4626,10 +5382,25 @@
         <v>0.83</v>
       </c>
       <c r="X44" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y44">
+        <v>7.66</v>
+      </c>
+      <c r="Z44">
+        <v>149.51</v>
+      </c>
+      <c r="AA44">
+        <v>13.3</v>
       </c>
       <c r="AC44" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4637,22 +5408,25 @@
       <c r="AG44">
         <v>4.944273948669434</v>
       </c>
-      <c r="AH44" t="s">
-        <v>155</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688126</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>2.98</v>
@@ -4670,7 +5444,7 @@
         <v>333023.64</v>
       </c>
       <c r="J45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4711,8 +5485,23 @@
       <c r="W45">
         <v>-0.18</v>
       </c>
+      <c r="Y45">
+        <v>-2.7</v>
+      </c>
+      <c r="Z45">
+        <v>26.35</v>
+      </c>
+      <c r="AA45">
+        <v>1.66</v>
+      </c>
       <c r="AC45" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -4720,22 +5509,25 @@
       <c r="AG45">
         <v>-3.816580295562744</v>
       </c>
-      <c r="AH45" t="s">
-        <v>155</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688135</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-6.79</v>
@@ -4753,7 +5545,7 @@
         <v>80227.00999999999</v>
       </c>
       <c r="J46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K46">
         <v>18</v>
@@ -4795,10 +5587,25 @@
         <v>-1.36</v>
       </c>
       <c r="X46" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y46">
+        <v>-3.54</v>
+      </c>
+      <c r="Z46">
+        <v>35.8</v>
+      </c>
+      <c r="AA46">
+        <v>0.65</v>
       </c>
       <c r="AC46" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4806,22 +5613,25 @@
       <c r="AG46">
         <v>6.064900875091553</v>
       </c>
-      <c r="AH46" t="s">
-        <v>155</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688141</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>1.4</v>
@@ -4839,7 +5649,7 @@
         <v>103994.53</v>
       </c>
       <c r="J47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K47">
         <v>17</v>
@@ -4881,10 +5691,25 @@
         <v>0.01</v>
       </c>
       <c r="X47" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y47">
+        <v>-3.9</v>
+      </c>
+      <c r="Z47">
+        <v>58.99</v>
+      </c>
+      <c r="AA47">
+        <v>0.36</v>
       </c>
       <c r="AC47" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4892,22 +5717,25 @@
       <c r="AG47">
         <v>3.886684894561768</v>
       </c>
-      <c r="AH47" t="s">
-        <v>155</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688147</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-5.33</v>
@@ -4925,7 +5753,7 @@
         <v>107398.28</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K48">
         <v>29</v>
@@ -4967,10 +5795,25 @@
         <v>-2.09</v>
       </c>
       <c r="X48" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y48">
+        <v>-3.29</v>
+      </c>
+      <c r="Z48">
+        <v>54.67</v>
+      </c>
+      <c r="AA48">
+        <v>0.61</v>
       </c>
       <c r="AC48" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4978,22 +5821,25 @@
       <c r="AG48">
         <v>-1.129559636116028</v>
       </c>
-      <c r="AH48" t="s">
-        <v>155</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688195</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-6.08</v>
@@ -5011,7 +5857,7 @@
         <v>134689.96</v>
       </c>
       <c r="J49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K49">
         <v>29</v>
@@ -5053,10 +5899,25 @@
         <v>-0.22</v>
       </c>
       <c r="X49" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y49">
+        <v>-4.82</v>
+      </c>
+      <c r="Z49">
+        <v>131.58</v>
+      </c>
+      <c r="AA49">
+        <v>1.84</v>
       </c>
       <c r="AC49" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -5064,22 +5925,25 @@
       <c r="AG49">
         <v>-4.49907922744751</v>
       </c>
-      <c r="AH49" t="s">
-        <v>155</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688233</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>4.54</v>
@@ -5097,7 +5961,7 @@
         <v>155122.75</v>
       </c>
       <c r="J50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5139,10 +6003,25 @@
         <v>-1.77</v>
       </c>
       <c r="X50" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y50">
+        <v>-2.64</v>
+      </c>
+      <c r="Z50">
+        <v>47.84</v>
+      </c>
+      <c r="AA50">
+        <v>2.82</v>
       </c>
       <c r="AC50" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>1</v>
@@ -5150,22 +6029,25 @@
       <c r="AG50">
         <v>-8.070234298706055</v>
       </c>
-      <c r="AH50" t="s">
-        <v>155</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688330</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>2.21</v>
@@ -5183,7 +6065,7 @@
         <v>38735.08</v>
       </c>
       <c r="J51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -5225,10 +6107,25 @@
         <v>0.24</v>
       </c>
       <c r="X51" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y51">
+        <v>-6.57</v>
+      </c>
+      <c r="Z51">
+        <v>41.99</v>
+      </c>
+      <c r="AA51">
+        <v>-1.43</v>
       </c>
       <c r="AC51" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5236,22 +6133,25 @@
       <c r="AG51">
         <v>2.09209418296814</v>
       </c>
-      <c r="AH51" t="s">
-        <v>155</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688332</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-4.82</v>
@@ -5269,7 +6169,7 @@
         <v>132835.88</v>
       </c>
       <c r="J52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5311,10 +6211,25 @@
         <v>-0.5</v>
       </c>
       <c r="X52" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y52">
+        <v>-1.34</v>
+      </c>
+      <c r="Z52">
+        <v>146.4</v>
+      </c>
+      <c r="AA52">
+        <v>1.65</v>
       </c>
       <c r="AC52" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5322,22 +6237,25 @@
       <c r="AG52">
         <v>-0.08801344037055969</v>
       </c>
-      <c r="AH52" t="s">
-        <v>155</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688347</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>5.86</v>
@@ -5355,7 +6273,7 @@
         <v>288807.96</v>
       </c>
       <c r="J53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K53">
         <v>11</v>
@@ -5397,10 +6315,25 @@
         <v>0.34</v>
       </c>
       <c r="X53" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y53">
+        <v>5.96</v>
+      </c>
+      <c r="Z53">
+        <v>99.88</v>
+      </c>
+      <c r="AA53">
+        <v>10.51</v>
       </c>
       <c r="AC53" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5408,22 +6341,25 @@
       <c r="AG53">
         <v>1.407283067703247</v>
       </c>
-      <c r="AH53" t="s">
-        <v>155</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688403</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-0.05</v>
@@ -5441,7 +6377,7 @@
         <v>112388.25</v>
       </c>
       <c r="J54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5483,10 +6419,25 @@
         <v>-0.15</v>
       </c>
       <c r="X54" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y54">
+        <v>3.96</v>
+      </c>
+      <c r="Z54">
+        <v>20.05</v>
+      </c>
+      <c r="AA54">
+        <v>10.16</v>
       </c>
       <c r="AC54" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5494,22 +6445,25 @@
       <c r="AG54">
         <v>-2.678584575653076</v>
       </c>
-      <c r="AH54" t="s">
-        <v>155</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688409</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>3.23</v>
@@ -5527,7 +6481,7 @@
         <v>112207.87</v>
       </c>
       <c r="J55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5568,8 +6522,23 @@
       <c r="W55">
         <v>-0.09</v>
       </c>
+      <c r="Y55">
+        <v>-3.91</v>
+      </c>
+      <c r="Z55">
+        <v>76.11</v>
+      </c>
+      <c r="AA55">
+        <v>1.89</v>
+      </c>
       <c r="AC55" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5577,22 +6546,25 @@
       <c r="AG55">
         <v>10.31589984893799</v>
       </c>
-      <c r="AH55" t="s">
-        <v>155</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688411</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>4.1</v>
@@ -5610,7 +6582,7 @@
         <v>106743.64</v>
       </c>
       <c r="J56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K56">
         <v>18</v>
@@ -5652,10 +6624,25 @@
         <v>0.58</v>
       </c>
       <c r="X56" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y56">
+        <v>-4.63</v>
+      </c>
+      <c r="Z56">
+        <v>286.5</v>
+      </c>
+      <c r="AA56">
+        <v>2.32</v>
       </c>
       <c r="AC56" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5663,22 +6650,25 @@
       <c r="AG56">
         <v>0.8208464980125427</v>
       </c>
-      <c r="AH56" t="s">
-        <v>155</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688503</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>8.94</v>
@@ -5696,7 +6686,7 @@
         <v>244048.77</v>
       </c>
       <c r="J57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5738,10 +6728,25 @@
         <v>0.47</v>
       </c>
       <c r="X57" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y57">
+        <v>7.12</v>
+      </c>
+      <c r="Z57">
+        <v>82.98999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>10.88</v>
       </c>
       <c r="AC57" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5749,22 +6754,25 @@
       <c r="AG57">
         <v>1.10626745223999</v>
       </c>
-      <c r="AH57" t="s">
-        <v>155</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688521</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>1.7</v>
@@ -5782,7 +6790,7 @@
         <v>427624.63</v>
       </c>
       <c r="J58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K58">
         <v>17</v>
@@ -5824,10 +6832,25 @@
         <v>-0.02</v>
       </c>
       <c r="X58" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y58">
+        <v>-6.6</v>
+      </c>
+      <c r="Z58">
+        <v>200.13</v>
+      </c>
+      <c r="AA58">
+        <v>-1.16</v>
       </c>
       <c r="AC58" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5835,22 +6858,25 @@
       <c r="AG58">
         <v>8.850990295410156</v>
       </c>
-      <c r="AH58" t="s">
-        <v>155</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688525</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-2.9</v>
@@ -5868,7 +6894,7 @@
         <v>258177.61</v>
       </c>
       <c r="J59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -5910,10 +6936,25 @@
         <v>0.01</v>
       </c>
       <c r="X59" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y59">
+        <v>-0.42</v>
+      </c>
+      <c r="Z59">
+        <v>96.8</v>
+      </c>
+      <c r="AA59">
+        <v>6.96</v>
       </c>
       <c r="AC59" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5921,22 +6962,25 @@
       <c r="AG59">
         <v>4.883147239685059</v>
       </c>
-      <c r="AH59" t="s">
-        <v>155</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688545</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-2.7</v>
@@ -5954,7 +6998,7 @@
         <v>92311.63</v>
       </c>
       <c r="J60" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5996,10 +7040,25 @@
         <v>-3.05</v>
       </c>
       <c r="X60" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y60">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="Z60">
+        <v>39.6</v>
+      </c>
+      <c r="AA60">
+        <v>3.5</v>
       </c>
       <c r="AC60" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>1</v>
@@ -6007,22 +7066,25 @@
       <c r="AG60">
         <v>1.452784895896912</v>
       </c>
-      <c r="AH60" t="s">
-        <v>155</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688559</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-4.63</v>
@@ -6040,7 +7102,7 @@
         <v>90026.86</v>
       </c>
       <c r="J61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K61">
         <v>15</v>
@@ -6082,10 +7144,25 @@
         <v>-0.03</v>
       </c>
       <c r="X61" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y61">
+        <v>-5.26</v>
+      </c>
+      <c r="Z61">
+        <v>44.18</v>
+      </c>
+      <c r="AA61">
+        <v>1.1</v>
       </c>
       <c r="AC61" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6093,22 +7170,25 @@
       <c r="AG61">
         <v>1.962414026260376</v>
       </c>
-      <c r="AH61" t="s">
-        <v>155</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688627</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-3.31</v>
@@ -6126,7 +7206,7 @@
         <v>147186.5</v>
       </c>
       <c r="J62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K62">
         <v>10</v>
@@ -6168,10 +7248,25 @@
         <v>-0.52</v>
       </c>
       <c r="X62" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y62">
+        <v>-1.14</v>
+      </c>
+      <c r="Z62">
+        <v>186.18</v>
+      </c>
+      <c r="AA62">
+        <v>6.39</v>
       </c>
       <c r="AC62" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6179,22 +7274,25 @@
       <c r="AG62">
         <v>0.9316834211349487</v>
       </c>
-      <c r="AH62" t="s">
-        <v>155</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688629</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>2.81</v>
@@ -6212,7 +7310,7 @@
         <v>210145.6</v>
       </c>
       <c r="J63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K63">
         <v>11</v>
@@ -6254,10 +7352,25 @@
         <v>1.08</v>
       </c>
       <c r="X63" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Y63">
+        <v>-6.81</v>
+      </c>
+      <c r="Z63">
+        <v>105.7</v>
+      </c>
+      <c r="AA63">
+        <v>-0.17</v>
       </c>
       <c r="AC63" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6265,22 +7378,25 @@
       <c r="AG63">
         <v>1.690667986869812</v>
       </c>
-      <c r="AH63" t="s">
-        <v>155</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688630</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-1.46</v>
@@ -6298,7 +7414,7 @@
         <v>124147.61</v>
       </c>
       <c r="J64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6340,10 +7456,25 @@
         <v>-0.74</v>
       </c>
       <c r="X64" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y64">
+        <v>-8.42</v>
+      </c>
+      <c r="Z64">
+        <v>160</v>
+      </c>
+      <c r="AA64">
+        <v>-0.01</v>
       </c>
       <c r="AC64" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6351,22 +7482,25 @@
       <c r="AG64">
         <v>-19.23508262634277</v>
       </c>
-      <c r="AH64" t="s">
-        <v>155</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688652</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-2.57</v>
@@ -6384,7 +7518,7 @@
         <v>96547.82000000001</v>
       </c>
       <c r="J65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -6426,10 +7560,25 @@
         <v>-0.63</v>
       </c>
       <c r="X65" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y65">
+        <v>3.41</v>
+      </c>
+      <c r="Z65">
+        <v>102.83</v>
+      </c>
+      <c r="AA65">
+        <v>8.01</v>
       </c>
       <c r="AC65" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6437,22 +7586,25 @@
       <c r="AG65">
         <v>2.88477349281311</v>
       </c>
-      <c r="AH65" t="s">
-        <v>155</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688661</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>2.25</v>
@@ -6470,7 +7622,7 @@
         <v>58526.99</v>
       </c>
       <c r="J66" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -6512,10 +7664,25 @@
         <v>-0.77</v>
       </c>
       <c r="X66" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y66">
+        <v>-4.49</v>
+      </c>
+      <c r="Z66">
+        <v>54</v>
+      </c>
+      <c r="AA66">
+        <v>0.92</v>
       </c>
       <c r="AC66" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6523,22 +7690,25 @@
       <c r="AG66">
         <v>22.80309104919434</v>
       </c>
-      <c r="AH66" t="s">
-        <v>155</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688678</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-2.62</v>
@@ -6556,7 +7726,7 @@
         <v>38302.96</v>
       </c>
       <c r="J67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K67">
         <v>6</v>
@@ -6598,10 +7768,25 @@
         <v>-0.67</v>
       </c>
       <c r="X67" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y67">
+        <v>-3.46</v>
+      </c>
+      <c r="Z67">
+        <v>35.66</v>
+      </c>
+      <c r="AA67">
+        <v>1.89</v>
       </c>
       <c r="AC67" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6609,22 +7794,25 @@
       <c r="AG67">
         <v>1.978057861328125</v>
       </c>
-      <c r="AH67" t="s">
-        <v>155</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688981</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-0.64</v>
@@ -6642,7 +7830,7 @@
         <v>1395330.76</v>
       </c>
       <c r="J68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K68">
         <v>11</v>
@@ -6684,10 +7872,25 @@
         <v>-0.41</v>
       </c>
       <c r="X68" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y68">
+        <v>-1.37</v>
+      </c>
+      <c r="Z68">
+        <v>135.95</v>
+      </c>
+      <c r="AA68">
+        <v>1.37</v>
       </c>
       <c r="AC68" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6695,8 +7898,11 @@
       <c r="AG68">
         <v>10.21788215637207</v>
       </c>
-      <c r="AH68" t="s">
-        <v>155</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
